--- a/mutation-analysis/mutants-rasa/results_bikeshop.xlsx
+++ b/mutation-analysis/mutants-rasa/results_bikeshop.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2A5B9-9C34-47BB-9D32-11E1EEA773AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,317 +36,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
-  <si>
-    <t xml:space="preserve">mutant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensei chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensei check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed (all_slots)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+  <si>
+    <t>mutant</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sensei chat</t>
+  </si>
+  <si>
+    <t>sensei check</t>
+  </si>
+  <si>
+    <t>botium</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>mutant_DA_001</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>survived</t>
+  </si>
+  <si>
+    <t>killed (all_slots)</t>
   </si>
   <si>
     <t xml:space="preserve">mutantes = </t>
   </si>
   <si>
-    <t xml:space="preserve">mutant_DA_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botium # tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mut Score Botium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DF_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DPR_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_066</t>
+    <t>mutant_DA_002</t>
+  </si>
+  <si>
+    <t>Botium # tests</t>
+  </si>
+  <si>
+    <t>mutant_DCS_001</t>
+  </si>
+  <si>
+    <t>Mut Score Botium</t>
+  </si>
+  <si>
+    <t>mutant_DCS_002</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>mutant_DCS_003</t>
+  </si>
+  <si>
+    <t>mutant_DCS_004</t>
+  </si>
+  <si>
+    <t>mutant_DCS_005</t>
+  </si>
+  <si>
+    <t>mutant_DF_001</t>
+  </si>
+  <si>
+    <t>mutant_DIP_001</t>
+  </si>
+  <si>
+    <t>Killed</t>
+  </si>
+  <si>
+    <t>mutant_DIP_002</t>
+  </si>
+  <si>
+    <t>mutant_DIP_003</t>
+  </si>
+  <si>
+    <t>mutant_DIP_004</t>
+  </si>
+  <si>
+    <t>mutant_DPR_001</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_001</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_002</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_001</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_002</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_003</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_004</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_005</t>
+  </si>
+  <si>
+    <t>mutant_SO_001</t>
+  </si>
+  <si>
+    <t>mutant_SO_002</t>
+  </si>
+  <si>
+    <t>mutant_SO_003</t>
+  </si>
+  <si>
+    <t>mutant_SO_004</t>
+  </si>
+  <si>
+    <t>mutant_SO_005</t>
+  </si>
+  <si>
+    <t>mutant_SO_006</t>
+  </si>
+  <si>
+    <t>mutant_SO_007</t>
+  </si>
+  <si>
+    <t>mutant_SO_008</t>
+  </si>
+  <si>
+    <t>mutant_SO_009</t>
+  </si>
+  <si>
+    <t>mutant_SO_010</t>
+  </si>
+  <si>
+    <t>mutant_SO_011</t>
+  </si>
+  <si>
+    <t>mutant_SO_012</t>
+  </si>
+  <si>
+    <t>mutant_SO_013</t>
+  </si>
+  <si>
+    <t>mutant_SO_014</t>
+  </si>
+  <si>
+    <t>mutant_SO_015</t>
+  </si>
+  <si>
+    <t>mutant_SO_016</t>
+  </si>
+  <si>
+    <t>mutant_SO_017</t>
+  </si>
+  <si>
+    <t>mutant_SO_018</t>
+  </si>
+  <si>
+    <t>mutant_SO_019</t>
+  </si>
+  <si>
+    <t>mutant_SO_020</t>
+  </si>
+  <si>
+    <t>mutant_SO_021</t>
+  </si>
+  <si>
+    <t>mutant_SO_022</t>
+  </si>
+  <si>
+    <t>mutant_SO_023</t>
+  </si>
+  <si>
+    <t>mutant_SO_024</t>
+  </si>
+  <si>
+    <t>mutant_SO_025</t>
+  </si>
+  <si>
+    <t>mutant_SO_026</t>
+  </si>
+  <si>
+    <t>mutant_SO_027</t>
+  </si>
+  <si>
+    <t>mutant_SO_028</t>
+  </si>
+  <si>
+    <t>mutant_SO_029</t>
+  </si>
+  <si>
+    <t>mutant_SO_030</t>
+  </si>
+  <si>
+    <t>mutant_SO_031</t>
+  </si>
+  <si>
+    <t>mutant_SO_032</t>
+  </si>
+  <si>
+    <t>mutant_SO_033</t>
+  </si>
+  <si>
+    <t>mutant_SO_034</t>
+  </si>
+  <si>
+    <t>mutant_SO_035</t>
+  </si>
+  <si>
+    <t>mutant_SO_036</t>
+  </si>
+  <si>
+    <t>mutant_SO_037</t>
+  </si>
+  <si>
+    <t>mutant_SO_038</t>
+  </si>
+  <si>
+    <t>mutant_SO_039</t>
+  </si>
+  <si>
+    <t>mutant_SO_040</t>
+  </si>
+  <si>
+    <t>mutant_SO_041</t>
+  </si>
+  <si>
+    <t>mutant_SO_042</t>
+  </si>
+  <si>
+    <t>mutant_SO_043</t>
+  </si>
+  <si>
+    <t>mutant_SO_044</t>
+  </si>
+  <si>
+    <t>mutant_SO_045</t>
+  </si>
+  <si>
+    <t>mutant_SO_046</t>
+  </si>
+  <si>
+    <t>mutant_SO_047</t>
+  </si>
+  <si>
+    <t>mutant_SO_048</t>
+  </si>
+  <si>
+    <t>mutant_SO_049</t>
+  </si>
+  <si>
+    <t>mutant_SO_050</t>
+  </si>
+  <si>
+    <t>mutant_SO_051</t>
+  </si>
+  <si>
+    <t>mutant_SO_052</t>
+  </si>
+  <si>
+    <t>mutant_SO_053</t>
+  </si>
+  <si>
+    <t>mutant_SO_054</t>
+  </si>
+  <si>
+    <t>mutant_SO_055</t>
+  </si>
+  <si>
+    <t>mutant_SO_056</t>
+  </si>
+  <si>
+    <t>mutant_SO_057</t>
+  </si>
+  <si>
+    <t>mutant_SO_058</t>
+  </si>
+  <si>
+    <t>mutant_SO_059</t>
+  </si>
+  <si>
+    <t>mutant_SO_060</t>
+  </si>
+  <si>
+    <t>mutant_SO_061</t>
+  </si>
+  <si>
+    <t>mutant_SO_062</t>
+  </si>
+  <si>
+    <t>mutant_SO_063</t>
+  </si>
+  <si>
+    <t>mutant_SO_064</t>
+  </si>
+  <si>
+    <t>mutant_SO_065</t>
+  </si>
+  <si>
+    <t>mutant_SO_066</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,22 +351,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -389,87 +386,60 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -528,32 +498,360 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +872,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -591,15 +889,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">COUNTIF(B2:B87,"Done")</f>
+      <c r="I2" s="4">
+        <f>COUNTIF(B2:B87,"Done")</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -616,14 +914,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -632,15 +930,15 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E87, "Killed")/(COUNTIF(E2:E87, "Killed")+COUNTIF(E2:E87, "survived"))</f>
-        <v>0.285714285714286</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4">
+        <f>COUNTIF(E2:E87, "Killed")/(COUNTIF(E2:E87, "Killed")+COUNTIF(E2:E87, "survived"))</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -656,7 +954,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -666,7 +964,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -676,7 +974,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -694,7 +992,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -712,7 +1010,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -728,7 +1026,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -738,7 +1036,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -748,7 +1046,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -764,7 +1062,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -780,7 +1078,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -796,7 +1094,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -812,7 +1110,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -822,7 +1120,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -838,7 +1136,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -848,7 +1146,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -864,7 +1162,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -874,7 +1172,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -884,7 +1182,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -894,7 +1192,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -904,7 +1202,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -914,7 +1212,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -924,7 +1222,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -934,7 +1232,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -944,7 +1242,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -954,7 +1252,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -964,7 +1262,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -974,7 +1272,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -990,7 +1288,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1000,7 +1298,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1010,7 +1308,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1318,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>48</v>
       </c>
@@ -1030,7 +1328,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1338,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
@@ -1050,7 +1348,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>51</v>
       </c>
@@ -1060,7 +1358,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
@@ -1070,7 +1368,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
@@ -1080,7 +1378,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>54</v>
       </c>
@@ -1090,7 +1388,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>55</v>
       </c>
@@ -1100,7 +1398,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1408,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>57</v>
       </c>
@@ -1120,7 +1418,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
@@ -1130,7 +1428,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>59</v>
       </c>
@@ -1140,7 +1438,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>60</v>
       </c>
@@ -1150,7 +1448,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -1160,7 +1458,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>62</v>
       </c>
@@ -1170,7 +1468,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -1180,7 +1478,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -1190,7 +1488,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>65</v>
       </c>
@@ -1200,7 +1498,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>66</v>
       </c>
@@ -1210,7 +1508,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>67</v>
       </c>
@@ -1220,7 +1518,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>68</v>
       </c>
@@ -1230,7 +1528,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>69</v>
       </c>
@@ -1240,7 +1538,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>70</v>
       </c>
@@ -1250,7 +1548,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -1260,7 +1558,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>72</v>
       </c>
@@ -1270,7 +1568,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>73</v>
       </c>
@@ -1280,7 +1578,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>74</v>
       </c>
@@ -1290,7 +1588,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>75</v>
       </c>
@@ -1300,7 +1598,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
@@ -1310,7 +1608,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>77</v>
       </c>
@@ -1320,7 +1618,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>78</v>
       </c>
@@ -1330,7 +1628,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>79</v>
       </c>
@@ -1340,7 +1638,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
@@ -1350,7 +1648,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>81</v>
       </c>
@@ -1360,7 +1658,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
@@ -1370,7 +1668,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>83</v>
       </c>
@@ -1380,7 +1678,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>84</v>
       </c>
@@ -1390,7 +1688,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>85</v>
       </c>
@@ -1400,7 +1698,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>86</v>
       </c>
@@ -1410,7 +1708,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>87</v>
       </c>
@@ -1420,7 +1718,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>88</v>
       </c>
@@ -1430,7 +1728,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>89</v>
       </c>
@@ -1440,7 +1738,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>90</v>
       </c>
@@ -1450,7 +1748,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>91</v>
       </c>
@@ -1460,7 +1758,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>92</v>
       </c>
@@ -1470,21 +1768,23 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>94</v>
       </c>
@@ -1494,7 +1794,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>95</v>
       </c>
@@ -1504,7 +1804,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>96</v>
       </c>
@@ -1514,7 +1814,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>97</v>
       </c>
@@ -1524,7 +1824,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>98</v>
       </c>
@@ -1534,7 +1834,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>99</v>
       </c>
@@ -1545,12 +1845,7 @@
       <c r="F87" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>